--- a/PFF_HTRA1/103124_analysis_by_image.xlsx
+++ b/PFF_HTRA1/103124_analysis_by_image.xlsx
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>93566</v>
@@ -547,10 +547,10 @@
         <v>6953</v>
       </c>
       <c r="E5" t="n">
-        <v>2689</v>
+        <v>2099</v>
       </c>
       <c r="F5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" t="n">
         <v>98077</v>
@@ -613,10 +613,10 @@
         <v>6577</v>
       </c>
       <c r="E8" t="n">
-        <v>4300</v>
+        <v>1162</v>
       </c>
       <c r="F8" t="n">
-        <v>672</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9">
@@ -698,13 +698,13 @@
         <v>17948</v>
       </c>
       <c r="D12" t="n">
-        <v>7364</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>254</v>
       </c>
       <c r="F12" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -720,13 +720,13 @@
         <v>32092</v>
       </c>
       <c r="D13" t="n">
-        <v>12062</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>542</v>
       </c>
       <c r="F13" t="n">
-        <v>358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -742,13 +742,13 @@
         <v>89627</v>
       </c>
       <c r="D14" t="n">
-        <v>924</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>2014</v>
       </c>
       <c r="F14" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -764,13 +764,13 @@
         <v>40715</v>
       </c>
       <c r="D15" t="n">
-        <v>11689</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>3486</v>
       </c>
       <c r="F15" t="n">
-        <v>1145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -786,13 +786,13 @@
         <v>48652</v>
       </c>
       <c r="D16" t="n">
-        <v>22525</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>361</v>
       </c>
       <c r="F16" t="n">
-        <v>313</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -808,13 +808,13 @@
         <v>36039</v>
       </c>
       <c r="D17" t="n">
-        <v>19293</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>513</v>
       </c>
       <c r="F17" t="n">
-        <v>247</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -830,13 +830,13 @@
         <v>55042</v>
       </c>
       <c r="D18" t="n">
-        <v>21506</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>162</v>
       </c>
       <c r="F18" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -852,13 +852,13 @@
         <v>94675</v>
       </c>
       <c r="D19" t="n">
-        <v>1381</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>2451</v>
       </c>
       <c r="F19" t="n">
-        <v>104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -874,13 +874,13 @@
         <v>21425</v>
       </c>
       <c r="D20" t="n">
-        <v>7264</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>1938</v>
       </c>
       <c r="F20" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -896,13 +896,13 @@
         <v>37331</v>
       </c>
       <c r="D21" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>2337</v>
       </c>
       <c r="F21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -934,7 +934,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" t="n">
         <v>36477</v>
@@ -943,10 +943,10 @@
         <v>2412</v>
       </c>
       <c r="E23" t="n">
-        <v>3384</v>
+        <v>2670</v>
       </c>
       <c r="F23" t="n">
-        <v>467</v>
+        <v>431</v>
       </c>
     </row>
     <row r="24">
@@ -1138,13 +1138,13 @@
         <v>74798</v>
       </c>
       <c r="D32" t="n">
-        <v>29244</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>6084</v>
       </c>
       <c r="F32" t="n">
-        <v>2793</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1160,13 +1160,13 @@
         <v>45583</v>
       </c>
       <c r="D33" t="n">
-        <v>16359</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>277</v>
       </c>
       <c r="F33" t="n">
-        <v>107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1182,13 +1182,13 @@
         <v>52276</v>
       </c>
       <c r="D34" t="n">
-        <v>27266</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>2834</v>
       </c>
       <c r="F34" t="n">
-        <v>1795</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1204,13 +1204,13 @@
         <v>72892</v>
       </c>
       <c r="D35" t="n">
-        <v>37054</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>3414</v>
       </c>
       <c r="F35" t="n">
-        <v>1912</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1226,13 +1226,13 @@
         <v>109787</v>
       </c>
       <c r="D36" t="n">
-        <v>47084</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>3808</v>
       </c>
       <c r="F36" t="n">
-        <v>1710</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1248,13 +1248,13 @@
         <v>53055</v>
       </c>
       <c r="D37" t="n">
-        <v>20593</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>579</v>
       </c>
       <c r="F37" t="n">
-        <v>238</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1270,13 +1270,13 @@
         <v>37312</v>
       </c>
       <c r="D38" t="n">
-        <v>17516</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>2260</v>
       </c>
       <c r="F38" t="n">
-        <v>1394</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1292,13 +1292,13 @@
         <v>153692</v>
       </c>
       <c r="D39" t="n">
-        <v>72719</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>7187</v>
       </c>
       <c r="F39" t="n">
-        <v>3814</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1314,13 +1314,13 @@
         <v>131464</v>
       </c>
       <c r="D40" t="n">
-        <v>56091</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>7285</v>
       </c>
       <c r="F40" t="n">
-        <v>2524</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1336,13 +1336,13 @@
         <v>134567</v>
       </c>
       <c r="D41" t="n">
-        <v>60619</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>3093</v>
       </c>
       <c r="F41" t="n">
-        <v>1555</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/PFF_HTRA1/103124_analysis_by_image.xlsx
+++ b/PFF_HTRA1/103124_analysis_by_image.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,22 +446,37 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Number_of_Nuclei</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Cell_Area</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Inclusion_Area</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>HTRA_Area</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Inclusion_Area</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Overlap_Area</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Overlap_to_Inclusion_Area</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Overlap_to_HTRA_Area</t>
         </is>
       </c>
     </row>
@@ -475,16 +490,25 @@
         <v>40</v>
       </c>
       <c r="C2" t="n">
+        <v>48</v>
+      </c>
+      <c r="D2" t="n">
         <v>51821</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1638</v>
       </c>
       <c r="E2" t="n">
         <v>5604</v>
       </c>
       <c r="F2" t="n">
+        <v>1638</v>
+      </c>
+      <c r="G2" t="n">
         <v>215</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.03836545324768023</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.1312576312576313</v>
       </c>
     </row>
     <row r="3">
@@ -497,16 +521,25 @@
         <v>145</v>
       </c>
       <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
         <v>115408</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6527</v>
       </c>
       <c r="E3" t="n">
         <v>19903</v>
       </c>
       <c r="F3" t="n">
+        <v>6527</v>
+      </c>
+      <c r="G3" t="n">
         <v>816</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.04099884439531729</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.1250191512180175</v>
       </c>
     </row>
     <row r="4">
@@ -519,16 +552,25 @@
         <v>53</v>
       </c>
       <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
         <v>87508</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4075</v>
       </c>
       <c r="E4" t="n">
         <v>5840</v>
       </c>
       <c r="F4" t="n">
+        <v>4075</v>
+      </c>
+      <c r="G4" t="n">
         <v>410</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0702054794520548</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.1006134969325153</v>
       </c>
     </row>
     <row r="5">
@@ -541,15 +583,24 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
         <v>93566</v>
-      </c>
-      <c r="D5" t="n">
-        <v>6953</v>
       </c>
       <c r="E5" t="n">
         <v>2099</v>
       </c>
       <c r="F5" t="n">
+        <v>6953</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -563,16 +614,25 @@
         <v>3</v>
       </c>
       <c r="C6" t="n">
+        <v>16</v>
+      </c>
+      <c r="D6" t="n">
         <v>45128</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1840</v>
       </c>
       <c r="E6" t="n">
         <v>239</v>
       </c>
       <c r="F6" t="n">
+        <v>1840</v>
+      </c>
+      <c r="G6" t="n">
         <v>36</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.1506276150627615</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.01956521739130435</v>
       </c>
     </row>
     <row r="7">
@@ -585,16 +645,25 @@
         <v>21</v>
       </c>
       <c r="C7" t="n">
+        <v>20</v>
+      </c>
+      <c r="D7" t="n">
         <v>66957</v>
-      </c>
-      <c r="D7" t="n">
-        <v>3714</v>
       </c>
       <c r="E7" t="n">
         <v>1365</v>
       </c>
       <c r="F7" t="n">
+        <v>3714</v>
+      </c>
+      <c r="G7" t="n">
         <v>234</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.1714285714285714</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.0630048465266559</v>
       </c>
     </row>
     <row r="8">
@@ -607,16 +676,25 @@
         <v>16</v>
       </c>
       <c r="C8" t="n">
+        <v>21</v>
+      </c>
+      <c r="D8" t="n">
         <v>98077</v>
-      </c>
-      <c r="D8" t="n">
-        <v>6577</v>
       </c>
       <c r="E8" t="n">
         <v>1162</v>
       </c>
       <c r="F8" t="n">
+        <v>6577</v>
+      </c>
+      <c r="G8" t="n">
         <v>82</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.07056798623063683</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.01246769043636916</v>
       </c>
     </row>
     <row r="9">
@@ -629,16 +707,25 @@
         <v>42</v>
       </c>
       <c r="C9" t="n">
+        <v>32</v>
+      </c>
+      <c r="D9" t="n">
         <v>30082</v>
-      </c>
-      <c r="D9" t="n">
-        <v>980</v>
       </c>
       <c r="E9" t="n">
         <v>1931</v>
       </c>
       <c r="F9" t="n">
+        <v>980</v>
+      </c>
+      <c r="G9" t="n">
         <v>30</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.01553599171413775</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.03061224489795918</v>
       </c>
     </row>
     <row r="10">
@@ -651,16 +738,25 @@
         <v>35</v>
       </c>
       <c r="C10" t="n">
+        <v>29</v>
+      </c>
+      <c r="D10" t="n">
         <v>53877</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1773</v>
       </c>
       <c r="E10" t="n">
         <v>6904</v>
       </c>
       <c r="F10" t="n">
+        <v>1773</v>
+      </c>
+      <c r="G10" t="n">
         <v>49</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.007097334878331402</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.02763677382966723</v>
       </c>
     </row>
     <row r="11">
@@ -673,16 +769,25 @@
         <v>19</v>
       </c>
       <c r="C11" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" t="n">
         <v>106194</v>
-      </c>
-      <c r="D11" t="n">
-        <v>8814</v>
       </c>
       <c r="E11" t="n">
         <v>3468</v>
       </c>
       <c r="F11" t="n">
+        <v>8814</v>
+      </c>
+      <c r="G11" t="n">
         <v>1053</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.3036332179930796</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.1194690265486726</v>
       </c>
     </row>
     <row r="12">
@@ -695,10 +800,10 @@
         <v>7</v>
       </c>
       <c r="C12" t="n">
+        <v>26</v>
+      </c>
+      <c r="D12" t="n">
         <v>17948</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>254</v>
@@ -706,6 +811,13 @@
       <c r="F12" t="n">
         <v>0</v>
       </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -717,10 +829,10 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
+        <v>24</v>
+      </c>
+      <c r="D13" t="n">
         <v>32092</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>542</v>
@@ -728,6 +840,13 @@
       <c r="F13" t="n">
         <v>0</v>
       </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -739,10 +858,10 @@
         <v>11</v>
       </c>
       <c r="C14" t="n">
+        <v>24</v>
+      </c>
+      <c r="D14" t="n">
         <v>89627</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>2014</v>
@@ -750,6 +869,13 @@
       <c r="F14" t="n">
         <v>0</v>
       </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -761,10 +887,10 @@
         <v>25</v>
       </c>
       <c r="C15" t="n">
+        <v>20</v>
+      </c>
+      <c r="D15" t="n">
         <v>40715</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>3486</v>
@@ -772,6 +898,13 @@
       <c r="F15" t="n">
         <v>0</v>
       </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -783,10 +916,10 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
+        <v>17</v>
+      </c>
+      <c r="D16" t="n">
         <v>48652</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>361</v>
@@ -794,6 +927,13 @@
       <c r="F16" t="n">
         <v>0</v>
       </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -805,10 +945,10 @@
         <v>5</v>
       </c>
       <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
         <v>36039</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>513</v>
@@ -816,6 +956,13 @@
       <c r="F17" t="n">
         <v>0</v>
       </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -827,10 +974,10 @@
         <v>4</v>
       </c>
       <c r="C18" t="n">
+        <v>26</v>
+      </c>
+      <c r="D18" t="n">
         <v>55042</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>162</v>
@@ -838,6 +985,13 @@
       <c r="F18" t="n">
         <v>0</v>
       </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -846,20 +1000,27 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C19" t="n">
+        <v>23</v>
+      </c>
+      <c r="D19" t="n">
         <v>94675</v>
       </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
       <c r="E19" t="n">
-        <v>2451</v>
+        <v>4289</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -871,10 +1032,10 @@
         <v>8</v>
       </c>
       <c r="C20" t="n">
+        <v>21</v>
+      </c>
+      <c r="D20" t="n">
         <v>21425</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>1938</v>
@@ -882,6 +1043,13 @@
       <c r="F20" t="n">
         <v>0</v>
       </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -893,10 +1061,10 @@
         <v>22</v>
       </c>
       <c r="C21" t="n">
+        <v>21</v>
+      </c>
+      <c r="D21" t="n">
         <v>37331</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>2337</v>
@@ -904,6 +1072,13 @@
       <c r="F21" t="n">
         <v>0</v>
       </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -915,16 +1090,25 @@
         <v>12</v>
       </c>
       <c r="C22" t="n">
+        <v>28</v>
+      </c>
+      <c r="D22" t="n">
         <v>133680</v>
-      </c>
-      <c r="D22" t="n">
-        <v>5829</v>
       </c>
       <c r="E22" t="n">
         <v>1758</v>
       </c>
       <c r="F22" t="n">
+        <v>5829</v>
+      </c>
+      <c r="G22" t="n">
         <v>668</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.3799772468714448</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.1145994167095557</v>
       </c>
     </row>
     <row r="23">
@@ -937,16 +1121,25 @@
         <v>19</v>
       </c>
       <c r="C23" t="n">
+        <v>27</v>
+      </c>
+      <c r="D23" t="n">
         <v>36477</v>
-      </c>
-      <c r="D23" t="n">
-        <v>2412</v>
       </c>
       <c r="E23" t="n">
         <v>2670</v>
       </c>
       <c r="F23" t="n">
+        <v>2412</v>
+      </c>
+      <c r="G23" t="n">
         <v>431</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.1614232209737828</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.1786898839137645</v>
       </c>
     </row>
     <row r="24">
@@ -959,16 +1152,25 @@
         <v>44</v>
       </c>
       <c r="C24" t="n">
+        <v>35</v>
+      </c>
+      <c r="D24" t="n">
         <v>79679</v>
-      </c>
-      <c r="D24" t="n">
-        <v>5566</v>
       </c>
       <c r="E24" t="n">
         <v>4518</v>
       </c>
       <c r="F24" t="n">
+        <v>5566</v>
+      </c>
+      <c r="G24" t="n">
         <v>955</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.2113767153607791</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.1715774344232842</v>
       </c>
     </row>
     <row r="25">
@@ -981,16 +1183,25 @@
         <v>18</v>
       </c>
       <c r="C25" t="n">
+        <v>37</v>
+      </c>
+      <c r="D25" t="n">
         <v>73419</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1230</v>
       </c>
       <c r="E25" t="n">
         <v>4357</v>
       </c>
       <c r="F25" t="n">
+        <v>1230</v>
+      </c>
+      <c r="G25" t="n">
         <v>313</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.07183842093183383</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.2544715447154471</v>
       </c>
     </row>
     <row r="26">
@@ -1003,16 +1214,25 @@
         <v>10</v>
       </c>
       <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="n">
         <v>27066</v>
-      </c>
-      <c r="D26" t="n">
-        <v>1200</v>
       </c>
       <c r="E26" t="n">
         <v>1488</v>
       </c>
       <c r="F26" t="n">
+        <v>1200</v>
+      </c>
+      <c r="G26" t="n">
         <v>329</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.2211021505376344</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.2741666666666667</v>
       </c>
     </row>
     <row r="27">
@@ -1025,16 +1245,25 @@
         <v>11</v>
       </c>
       <c r="C27" t="n">
+        <v>18</v>
+      </c>
+      <c r="D27" t="n">
         <v>76612</v>
-      </c>
-      <c r="D27" t="n">
-        <v>1842</v>
       </c>
       <c r="E27" t="n">
         <v>1574</v>
       </c>
       <c r="F27" t="n">
+        <v>1842</v>
+      </c>
+      <c r="G27" t="n">
         <v>16</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.01016518424396442</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.008686210640608035</v>
       </c>
     </row>
     <row r="28">
@@ -1047,16 +1276,25 @@
         <v>34</v>
       </c>
       <c r="C28" t="n">
+        <v>40</v>
+      </c>
+      <c r="D28" t="n">
         <v>120672</v>
-      </c>
-      <c r="D28" t="n">
-        <v>1982</v>
       </c>
       <c r="E28" t="n">
         <v>6702</v>
       </c>
       <c r="F28" t="n">
+        <v>1982</v>
+      </c>
+      <c r="G28" t="n">
         <v>172</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.02566398090122352</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.08678102926337034</v>
       </c>
     </row>
     <row r="29">
@@ -1069,15 +1307,24 @@
         <v>2</v>
       </c>
       <c r="C29" t="n">
+        <v>39</v>
+      </c>
+      <c r="D29" t="n">
         <v>62455</v>
-      </c>
-      <c r="D29" t="n">
-        <v>1776</v>
       </c>
       <c r="E29" t="n">
         <v>121</v>
       </c>
       <c r="F29" t="n">
+        <v>1776</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1091,15 +1338,24 @@
         <v>1</v>
       </c>
       <c r="C30" t="n">
+        <v>40</v>
+      </c>
+      <c r="D30" t="n">
         <v>65915</v>
-      </c>
-      <c r="D30" t="n">
-        <v>185</v>
       </c>
       <c r="E30" t="n">
         <v>720</v>
       </c>
       <c r="F30" t="n">
+        <v>185</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1113,16 +1369,25 @@
         <v>6</v>
       </c>
       <c r="C31" t="n">
+        <v>30</v>
+      </c>
+      <c r="D31" t="n">
         <v>13332</v>
-      </c>
-      <c r="D31" t="n">
-        <v>270</v>
       </c>
       <c r="E31" t="n">
         <v>2105</v>
       </c>
       <c r="F31" t="n">
+        <v>270</v>
+      </c>
+      <c r="G31" t="n">
         <v>62</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.02945368171021378</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.2296296296296296</v>
       </c>
     </row>
     <row r="32">
@@ -1135,10 +1400,10 @@
         <v>25</v>
       </c>
       <c r="C32" t="n">
+        <v>9</v>
+      </c>
+      <c r="D32" t="n">
         <v>74798</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>6084</v>
@@ -1146,6 +1411,13 @@
       <c r="F32" t="n">
         <v>0</v>
       </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1157,10 +1429,10 @@
         <v>1</v>
       </c>
       <c r="C33" t="n">
+        <v>19</v>
+      </c>
+      <c r="D33" t="n">
         <v>45583</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>277</v>
@@ -1168,6 +1440,13 @@
       <c r="F33" t="n">
         <v>0</v>
       </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1179,10 +1458,10 @@
         <v>14</v>
       </c>
       <c r="C34" t="n">
+        <v>16</v>
+      </c>
+      <c r="D34" t="n">
         <v>52276</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>2834</v>
@@ -1190,6 +1469,13 @@
       <c r="F34" t="n">
         <v>0</v>
       </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1201,10 +1487,10 @@
         <v>7</v>
       </c>
       <c r="C35" t="n">
+        <v>18</v>
+      </c>
+      <c r="D35" t="n">
         <v>72892</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>3414</v>
@@ -1212,6 +1498,13 @@
       <c r="F35" t="n">
         <v>0</v>
       </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1223,10 +1516,10 @@
         <v>30</v>
       </c>
       <c r="C36" t="n">
+        <v>26</v>
+      </c>
+      <c r="D36" t="n">
         <v>109787</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>3808</v>
@@ -1234,6 +1527,13 @@
       <c r="F36" t="n">
         <v>0</v>
       </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1245,10 +1545,10 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
+        <v>23</v>
+      </c>
+      <c r="D37" t="n">
         <v>53055</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>579</v>
@@ -1256,6 +1556,13 @@
       <c r="F37" t="n">
         <v>0</v>
       </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1267,10 +1574,10 @@
         <v>3</v>
       </c>
       <c r="C38" t="n">
+        <v>27</v>
+      </c>
+      <c r="D38" t="n">
         <v>37312</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>2260</v>
@@ -1278,6 +1585,13 @@
       <c r="F38" t="n">
         <v>0</v>
       </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1289,10 +1603,10 @@
         <v>33</v>
       </c>
       <c r="C39" t="n">
+        <v>30</v>
+      </c>
+      <c r="D39" t="n">
         <v>153692</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>7187</v>
@@ -1300,6 +1614,13 @@
       <c r="F39" t="n">
         <v>0</v>
       </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1311,10 +1632,10 @@
         <v>37</v>
       </c>
       <c r="C40" t="n">
+        <v>44</v>
+      </c>
+      <c r="D40" t="n">
         <v>131464</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>7285</v>
@@ -1322,6 +1643,13 @@
       <c r="F40" t="n">
         <v>0</v>
       </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1333,10 +1661,10 @@
         <v>9</v>
       </c>
       <c r="C41" t="n">
+        <v>28</v>
+      </c>
+      <c r="D41" t="n">
         <v>134567</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>3093</v>
@@ -1344,6 +1672,13 @@
       <c r="F41" t="n">
         <v>0</v>
       </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
